--- a/docs/calculation-shelly-balancing-meter.xlsx
+++ b/docs/calculation-shelly-balancing-meter.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flauer\Downloads\dbus-shelly-3em-smartmeter__GIT\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9242AC63-48D6-4DAD-9547-FD6B70278AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECA9617-9E2E-4063-9EBC-57CED275F983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6523B022-57A1-4033-A555-09C47C29BE4F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample no PV" sheetId="3" r:id="rId1"/>
+    <sheet name="Sample with PV t0-t2" sheetId="3" r:id="rId1"/>
     <sheet name="Sample" sheetId="1" r:id="rId2"/>
     <sheet name="Real-Data" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>L1-in</t>
   </si>
@@ -100,13 +100,19 @@
   </si>
   <si>
     <t>Saldiert</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>Diff (t1-t2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,19 +128,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,11 +155,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -485,15 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C69C2-F08F-40A3-BD36-B6576E8A464F}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -506,143 +513,188 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>1573.877</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1573.877</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <f>C2-B2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="F2" s="2">
+        <v>1573.877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>978.66</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>978.68899999999996</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D10" si="0">C3-B3</f>
         <v>2.8999999999996362E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="F3" s="2">
+        <v>978.68899999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1236.1099999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1236.1741999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>6.4200000000028012E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="2">
+        <v>1236.1741999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <f>B2+B3+B4</f>
-        <v>3788.6469999999999</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="C5">
-        <f>C2+C3+C4</f>
-        <v>3788.7401999999997</v>
+        <v>0.47620000000000001</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>9.3199999999797001E-2</v>
+        <v>1.7900000000000027E-2</v>
       </c>
       <c r="E5">
         <f>B5+D5-IF(D10&gt;=D5,D5,0)</f>
-        <v>3788.7401999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.49080000000000001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G10" si="1">F5-E5</f>
+        <v>3.2500000000000029E-2</v>
+      </c>
+      <c r="H5">
+        <f>E5+G5-IF(G10&gt;=G5,G5,0)</f>
+        <v>0.45829999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>666.76059999999995</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>666.76059999999995</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>142.92939999999999</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>142.92939999999999</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <f>B7+B8+B9</f>
-        <v>809.68999999999994</v>
+        <v>5.5275990000000004</v>
       </c>
       <c r="C10">
-        <f>C7+C8+C9</f>
-        <v>809.68999999999994</v>
+        <v>5.8765000000000001</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.34890099999999968</v>
       </c>
       <c r="E10">
         <f>B10+D10-IF(D10&gt;=D5,D5,0)</f>
-        <v>809.68999999999994</v>
+        <v>5.8586</v>
+      </c>
+      <c r="F10">
+        <v>6.2169999999999996</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.35839999999999961</v>
+      </c>
+      <c r="H10">
+        <f>E10+G10-IF(G10&gt;=G5,G5,0)</f>
+        <v>6.1844999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +877,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
